--- a/Iridium NEXT 8/Excel/events.xlsx
+++ b/Iridium NEXT 8/Excel/events.xlsx
@@ -501,9 +501,6 @@
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" t="n">
-        <v>425</v>
-      </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
